--- a/biology/Botanique/Dracula_(plante)/Dracula_(plante).xlsx
+++ b/biology/Botanique/Dracula_(plante)/Dracula_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dracula est un  genre de plantes de la famille des Orchidaceae que l'on retrouve dans les forêts d'altitude d'Amérique du Sud (du Mexique au Pérou, Cordillère des Andes). Ce nouveau genre a été séparé du genre Masdevallia en 1978.
 Ces orchidées, très colorées en forme de coupe dont les pétales et sépales se terminent en grandes queues possèdent de grandes fleurs pendantes. Le nom Dracula vient du roumain Drac, signifiant diable et Dracula, diablesse.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 juillet 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 juillet 2017) :
 Dracula adrianae Luer
 Dracula agnosia A.Doucette
 Dracula alcithoe Luer &amp; R.Escobar
@@ -649,7 +663,7 @@
 Dracula wallisii (Rchb.f.) Luer
 Dracula woolwardiae (F.Lehm. &amp; Kraenzl.) Luer
 Dracula xenos Luer &amp; R.Escobar
-Selon World Checklist of Selected Plant Families (WCSP)  (20 juillet 2017)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (20 juillet 2017) :
 Dracula adrianae Luer (1998)
 Dracula agnosia A.Doucette (2012)
 Dracula alcithoe Luer &amp; R.Escobar (1981)
